--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2055.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2055.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162721240568154</v>
+        <v>1.140973091125488</v>
       </c>
       <c r="B1">
-        <v>2.636765502722976</v>
+        <v>2.328085660934448</v>
       </c>
       <c r="C1">
-        <v>5.155079581264949</v>
+        <v>4.846299648284912</v>
       </c>
       <c r="D1">
-        <v>2.747319106597805</v>
+        <v>2.182245492935181</v>
       </c>
       <c r="E1">
-        <v>1.208512044023957</v>
+        <v>1.075821757316589</v>
       </c>
     </row>
   </sheetData>
